--- a/ПКМ/resdata PKM Temp=-25, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-25, Volume=10x15x4.xlsx
@@ -527,7 +527,7 @@
         <v>942.7896748053469</v>
       </c>
       <c r="E3" t="n">
-        <v>458.2087755115322</v>
+        <v>458.2168484452521</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -561,7 +561,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>6.86959151322309</v>
+        <v>6.869617231179107</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -586,31 +586,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>532.7936903976087</v>
+        <v>532.7936294056466</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>951.4798546106709</v>
+        <v>951.4797358198782</v>
       </c>
       <c r="E5" t="n">
-        <v>465.0783670247553</v>
+        <v>465.0864656764312</v>
       </c>
       <c r="F5" t="n">
-        <v>0.779241741921997</v>
+        <v>0.7792417563827397</v>
       </c>
       <c r="G5" t="n">
-        <v>0.121980083255256</v>
+        <v>0.1219801067573431</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0310139772956233</v>
+        <v>0.03101396480642922</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06123179809639913</v>
+        <v>0.06123177306549076</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006532399430724545</v>
+        <v>0.00653239898799716</v>
       </c>
     </row>
     <row r="6">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.1627101736362</v>
+        <v>461.1589420042208</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>869.6933075159604</v>
+        <v>869.6889934591961</v>
       </c>
       <c r="E6" t="n">
-        <v>465.0783670247553</v>
+        <v>465.0864656764312</v>
       </c>
       <c r="F6" t="n">
-        <v>0.779241741921997</v>
+        <v>0.7792417563827397</v>
       </c>
       <c r="G6" t="n">
-        <v>0.121980083255256</v>
+        <v>0.1219801067573431</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0310139772956233</v>
+        <v>0.03101396480642922</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06123179809639913</v>
+        <v>0.06123177306549076</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006532399430724545</v>
+        <v>0.00653239898799716</v>
       </c>
     </row>
     <row r="7">
@@ -654,31 +654,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.4718435875856</v>
+        <v>295.4722618345554</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>685.7093144570127</v>
+        <v>685.7097255199963</v>
       </c>
       <c r="E7" t="n">
-        <v>465.0783670247553</v>
+        <v>465.0864656764312</v>
       </c>
       <c r="F7" t="n">
-        <v>0.779241741921997</v>
+        <v>0.7792417563827397</v>
       </c>
       <c r="G7" t="n">
-        <v>0.121980083255256</v>
+        <v>0.1219801067573431</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0310139772956233</v>
+        <v>0.03101396480642922</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06123179809639913</v>
+        <v>0.06123177306549076</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006532399430724545</v>
+        <v>0.00653239898799716</v>
       </c>
     </row>
     <row r="8">
@@ -688,31 +688,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.7803734269091</v>
+        <v>231.5598193899834</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.8312703156032</v>
+        <v>616.5943240504745</v>
       </c>
       <c r="E8" t="n">
-        <v>465.0783670247553</v>
+        <v>465.0864656764312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.779241741921997</v>
+        <v>0.7792417563827397</v>
       </c>
       <c r="G8" t="n">
-        <v>0.121980083255256</v>
+        <v>0.1219801067573431</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0310139772956233</v>
+        <v>0.03101396480642922</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06123179809639913</v>
+        <v>0.06123177306549076</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006532399430724545</v>
+        <v>0.00653239898799716</v>
       </c>
     </row>
     <row r="9">
@@ -722,31 +722,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>230.8565508544734</v>
+        <v>230.6356683288199</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.8390391666086</v>
+        <v>615.6017845942167</v>
       </c>
       <c r="E9" t="n">
-        <v>465.0783670247553</v>
+        <v>465.0864656764312</v>
       </c>
       <c r="F9" t="n">
-        <v>0.779241741921997</v>
+        <v>0.7792417563827397</v>
       </c>
       <c r="G9" t="n">
-        <v>0.121980083255256</v>
+        <v>0.1219801067573431</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0310139772956233</v>
+        <v>0.03101396480642922</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06123179809639913</v>
+        <v>0.06123177306549076</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006532399430724545</v>
+        <v>0.00653239898799716</v>
       </c>
     </row>
     <row r="10">
@@ -756,31 +756,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.2823584032642</v>
+        <v>170.8443870241061</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.22587207508</v>
+        <v>551.7607172105295</v>
       </c>
       <c r="E10" t="n">
-        <v>465.0783670247553</v>
+        <v>465.0864656764312</v>
       </c>
       <c r="F10" t="n">
-        <v>0.779241741921997</v>
+        <v>0.7792417563827397</v>
       </c>
       <c r="G10" t="n">
-        <v>0.121980083255256</v>
+        <v>0.1219801067573431</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0310139772956233</v>
+        <v>0.03101396480642922</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06123179809639913</v>
+        <v>0.06123177306549076</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006532399430724545</v>
+        <v>0.00653239898799716</v>
       </c>
     </row>
     <row r="11">
@@ -790,31 +790,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.9338104690703</v>
+        <v>110.6532341031007</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>488.439436654253</v>
+        <v>488.1441309183893</v>
       </c>
       <c r="E11" t="n">
-        <v>465.0783670247553</v>
+        <v>465.0864656764312</v>
       </c>
       <c r="F11" t="n">
-        <v>0.779241741921997</v>
+        <v>0.7792417563827397</v>
       </c>
       <c r="G11" t="n">
-        <v>0.121980083255256</v>
+        <v>0.1219801067573431</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0310139772956233</v>
+        <v>0.03101396480642922</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06123179809639913</v>
+        <v>0.06123177306549076</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006532399430724545</v>
+        <v>0.00653239898799716</v>
       </c>
     </row>
     <row r="12">
@@ -833,7 +833,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>6.511747918527754</v>
+        <v>6.511772296810836</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -857,7 +857,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3578435946953403</v>
+        <v>0.3578449343682759</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -962,7 +962,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986980173052393</v>
+        <v>5.986973995961871</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986980173052393</v>
+        <v>5.986973995961871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986980173052393</v>
+        <v>5.986973995961871</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986980173052393</v>
+        <v>5.986973995961871</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381356701202984</v>
+        <v>2.381354244228769</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944188</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173055</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9205739650646118</v>
+        <v>1.029781333813115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9825598479650095</v>
+        <v>1.078079615881384</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9369138856744682</v>
+        <v>0.9551997075570505</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5342983996213299</v>
+        <v>0.5059228024054331</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.52787853072866</v>
+        <v>49.62141267698454</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.19633550662246</v>
+        <v>34.81711640441448</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8491067438951492</v>
+        <v>0.8492872914705053</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.316645622724712</v>
+        <v>10.34127934454948</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.837215229842371</v>
+        <v>0.8367690684643843</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.583183575626712</v>
+        <v>3.094072625396406</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8025436946797462</v>
+        <v>0.8069975323736849</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.431713825754769</v>
+        <v>1.368944302624167</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.1920907383703896</v>
+        <v>0.3479292993308671</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07488429477349746</v>
+        <v>0.1146228093449125</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08373288458116727</v>
+        <v>0.1278527996869928</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8943235999580028</v>
+        <v>0.8965217001546326</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39984.88073136394</v>
+        <v>39815.54746995588</v>
       </c>
       <c r="C2" t="n">
-        <v>40388.76841551913</v>
+        <v>40217.72471712715</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88958.8711732259</v>
+        <v>87003.61740328377</v>
       </c>
       <c r="C3" t="n">
-        <v>89857.44562952111</v>
+        <v>87882.44182149877</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36963.82363676127</v>
+        <v>37550.99006228481</v>
       </c>
       <c r="C4" t="n">
-        <v>37337.19559268815</v>
+        <v>37930.29299220689</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>505.332684000019</v>
+        <v>506.6632330688878</v>
       </c>
       <c r="C5" t="n">
-        <v>510.4370545454737</v>
+        <v>511.7810435039272</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32011.33174968141</v>
+        <v>32606.38387139703</v>
       </c>
       <c r="C6" t="n">
-        <v>32334.67853503173</v>
+        <v>32935.74128423943</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34316.80016539223</v>
+        <v>35554.53214993077</v>
       </c>
       <c r="C7" t="n">
-        <v>34663.43451049719</v>
+        <v>35913.6688383139</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.34173240348427</v>
+        <v>32.0343490235542</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112.988907697803</v>
+        <v>110.473867646755</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.870382290016261</v>
+        <v>9.69280572099432</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -2257,16 +2257,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>508.5403605129208</v>
+        <v>508.5348885136763</v>
       </c>
       <c r="C3" t="n">
-        <v>6.862569377978481</v>
+        <v>6.862694463162144</v>
       </c>
       <c r="D3" t="n">
-        <v>3433.641513893605</v>
+        <v>3433.628421321132</v>
       </c>
       <c r="E3" t="n">
-        <v>56.74609395899898</v>
+        <v>56.74045851368602</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -2278,16 +2278,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>287.7616331339977</v>
+        <v>287.7621061749177</v>
       </c>
       <c r="C4" t="n">
-        <v>7.202138404867591</v>
+        <v>7.202188416524685</v>
       </c>
       <c r="D4" t="n">
-        <v>2769.962625844389</v>
+        <v>2769.961956183229</v>
       </c>
       <c r="E4" t="n">
-        <v>56.74609395899898</v>
+        <v>56.74045851368602</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -2299,16 +2299,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.5870223102869</v>
+        <v>287.5680807765756</v>
       </c>
       <c r="C5" t="n">
-        <v>7.202138404867591</v>
+        <v>7.202188416524685</v>
       </c>
       <c r="D5" t="n">
-        <v>1277.037842820927</v>
+        <v>1276.934785384212</v>
       </c>
       <c r="E5" t="n">
-        <v>56.74609395899898</v>
+        <v>56.74045851368602</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -2320,16 +2320,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.9686811625851</v>
+        <v>168.4989308950478</v>
       </c>
       <c r="C6" t="n">
-        <v>7.202138404867591</v>
+        <v>7.202188416524685</v>
       </c>
       <c r="D6" t="n">
-        <v>718.1408192970234</v>
+        <v>716.1026601985382</v>
       </c>
       <c r="E6" t="n">
-        <v>56.74609395899898</v>
+        <v>56.74045851368602</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -2341,16 +2341,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.6808635514546</v>
+        <v>160.19942024342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6290147350185348</v>
+        <v>0.6213766863521194</v>
       </c>
       <c r="D7" t="n">
-        <v>678.4322233725161</v>
+        <v>676.3399131315682</v>
       </c>
       <c r="E7" t="n">
-        <v>56.74609395899898</v>
+        <v>56.74045851368602</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -2362,16 +2362,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.7859147499604</v>
+        <v>172.2782752607144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6232502095439438</v>
+        <v>0.620664089127015</v>
       </c>
       <c r="D8" t="n">
-        <v>2787.847786980201</v>
+        <v>2787.2198935824</v>
       </c>
       <c r="E8" t="n">
-        <v>15.40320664523038</v>
+        <v>15.46301321440322</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -2383,16 +2383,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>160.6808634235919</v>
+        <v>160.1994201165382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6290147350185348</v>
+        <v>0.6213766863521194</v>
       </c>
       <c r="D9" t="n">
-        <v>2758.188063493536</v>
+        <v>2757.660564370804</v>
       </c>
       <c r="E9" t="n">
-        <v>15.40320664523038</v>
+        <v>15.46301321440322</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -2404,16 +2404,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.6808635514546</v>
+        <v>160.19942024342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6290147350185348</v>
+        <v>0.6213766863521194</v>
       </c>
       <c r="D10" t="n">
-        <v>716.517455631049</v>
+        <v>714.8994003472245</v>
       </c>
       <c r="E10" t="n">
-        <v>72.14930060422935</v>
+        <v>72.20347172808924</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>160.6808635514546</v>
+        <v>160.19942024342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6290147350185348</v>
+        <v>0.6213766863521194</v>
       </c>
       <c r="D11" t="n">
-        <v>716.517455631049</v>
+        <v>714.8994003472245</v>
       </c>
       <c r="E11" t="n">
-        <v>72.14234719021916</v>
+        <v>72.20347172808924</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -2446,16 +2446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.76614832603963</v>
+        <v>73.72621739920936</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6290147350185348</v>
+        <v>0.6213766863521194</v>
       </c>
       <c r="D12" t="n">
-        <v>309.3890153580663</v>
+        <v>309.2216615461151</v>
       </c>
       <c r="E12" t="n">
-        <v>72.14930060422935</v>
+        <v>72.20347172808924</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -2467,16 +2467,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.76555339580716</v>
+        <v>73.7247801403314</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>309.3865219487472</v>
+        <v>309.2156378946965</v>
       </c>
       <c r="E13" t="n">
-        <v>72.14157048929596</v>
+        <v>72.20520569938613</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.38814278696134</v>
+        <v>73.34402968763163</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>307.8048041566728</v>
+        <v>307.6199333145072</v>
       </c>
       <c r="E14" t="n">
-        <v>66.13535080412422</v>
+        <v>66.19897574656383</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -2509,16 +2509,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>114.4287849458213</v>
+        <v>114.4179405218544</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1660548489720935</v>
+        <v>0.1659959351104635</v>
       </c>
       <c r="D15" t="n">
-        <v>480.1718994252773</v>
+        <v>480.1259341333226</v>
       </c>
       <c r="E15" t="n">
-        <v>61.69858928202801</v>
+        <v>61.70379598804217</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.29860510747983</v>
+        <v>77.29788532219919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1660549122722719</v>
+        <v>0.1659994608457994</v>
       </c>
       <c r="D16" t="n">
-        <v>323.772770844768</v>
+        <v>323.7697071394005</v>
       </c>
       <c r="E16" t="n">
-        <v>61.69787992713809</v>
+        <v>61.70465608600634</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>664.3684728087173</v>
+        <v>664.368394874667</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>83.69110354778059</v>
+        <v>83.69109373035708</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -2593,16 +2593,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.16199578241262</v>
+        <v>95.15798510557133</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>398.4432763409616</v>
+        <v>398.4264836370272</v>
       </c>
       <c r="E19" t="n">
-        <v>83.69110354778059</v>
+        <v>83.69109373035708</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -2614,16 +2614,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.6078707524887</v>
+        <v>130.5184363378192</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2258029371840066</v>
+        <v>0.2258225236696656</v>
       </c>
       <c r="D20" t="n">
-        <v>2726.003209184637</v>
+        <v>2725.8079435103</v>
       </c>
       <c r="E20" t="n">
-        <v>11.22188391018756</v>
+        <v>11.23571584400504</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -2635,16 +2635,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.4388920769152</v>
+        <v>122.4416696124306</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2145127903248062</v>
+        <v>0.2145313974861823</v>
       </c>
       <c r="D21" t="n">
-        <v>514.1772247254605</v>
+        <v>514.1890356298351</v>
       </c>
       <c r="E21" t="n">
-        <v>11.22188391018756</v>
+        <v>11.23571584400504</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -2656,16 +2656,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.1663549203996</v>
+        <v>111.1562937051581</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>465.4535280517131</v>
+        <v>465.4114017434969</v>
       </c>
       <c r="E22" t="n">
-        <v>664.3684728087173</v>
+        <v>664.368394874667</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
         <v>502.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>664.3684728087173</v>
+        <v>664.368394874667</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.33421851777419</v>
+        <v>71.33371328914797</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2707,7 +2707,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>664.3684728087173</v>
+        <v>664.368394874667</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -2719,16 +2719,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.0036698049818</v>
+        <v>115.9927244916391</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1747945778653616</v>
+        <v>0.1747325632741721</v>
       </c>
       <c r="D25" t="n">
-        <v>2689.885600636081</v>
+        <v>2689.629907432038</v>
       </c>
       <c r="E25" t="n">
-        <v>50.47671442726111</v>
+        <v>50.46885611382334</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2740,19 +2740,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>505.8998626127383</v>
+        <v>505.8961638829101</v>
       </c>
       <c r="C26" t="n">
-        <v>6.306589219211684</v>
+        <v>6.306962636114958</v>
       </c>
       <c r="D26" t="n">
-        <v>3433.641513893605</v>
+        <v>3433.628421321132</v>
       </c>
       <c r="E26" t="n">
-        <v>50.732868560099</v>
+        <v>50.73591636430326</v>
       </c>
       <c r="F26" t="n">
-        <v>6.874279636224117</v>
+        <v>6.874236817071987</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2765,19 +2765,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>201.4889604355004</v>
+        <v>201.544263328144</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4684583137105294</v>
+        <v>0.468786531163844</v>
       </c>
       <c r="D27" t="n">
-        <v>2860.623055307759</v>
+        <v>2860.724022037439</v>
       </c>
       <c r="E27" t="n">
-        <v>50.732868560099</v>
+        <v>50.73591636430326</v>
       </c>
       <c r="F27" t="n">
-        <v>7.100417179493444</v>
+        <v>7.100314628199962</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2790,19 +2790,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.0965635661994</v>
+        <v>169.8481247687609</v>
       </c>
       <c r="C28" t="n">
-        <v>0.535979685685854</v>
+        <v>0.536833256251544</v>
       </c>
       <c r="D28" t="n">
-        <v>2787.847786980201</v>
+        <v>2787.2198935824</v>
       </c>
       <c r="E28" t="n">
-        <v>15.40320664523038</v>
+        <v>15.46301321440322</v>
       </c>
       <c r="F28" t="n">
-        <v>6.881491572819368</v>
+        <v>6.879368852910475</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2815,19 +2815,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193.5444929163104</v>
+        <v>193.4973044006214</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4684583137105294</v>
+        <v>0.468786531163844</v>
       </c>
       <c r="D29" t="n">
-        <v>2843.673569066986</v>
+        <v>2843.554630978599</v>
       </c>
       <c r="E29" t="n">
-        <v>66.13607520532938</v>
+        <v>66.19892957870647</v>
       </c>
       <c r="F29" t="n">
-        <v>7.064404259658804</v>
+        <v>7.063834752787446</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2840,19 +2840,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>130.6071611065846</v>
+        <v>130.5176737086112</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2258161623401366</v>
+        <v>0.2258378693666743</v>
       </c>
       <c r="D30" t="n">
-        <v>2726.001888740424</v>
+        <v>2725.806524455857</v>
       </c>
       <c r="E30" t="n">
-        <v>66.13607520532938</v>
+        <v>66.19892957870647</v>
       </c>
       <c r="F30" t="n">
-        <v>7.121832243725751</v>
+        <v>7.121305036553663</v>
       </c>
       <c r="G30" t="n">
         <v>100</v>
@@ -2865,22 +2865,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.0033798559299</v>
+        <v>115.9922086882848</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1747929348227975</v>
+        <v>0.1747296412503133</v>
       </c>
       <c r="D31" t="n">
-        <v>2689.884320979012</v>
+        <v>2689.627563919801</v>
       </c>
       <c r="E31" t="n">
-        <v>54.91420035056248</v>
+        <v>54.96398970448764</v>
       </c>
       <c r="F31" t="n">
-        <v>7.145704197641756</v>
+        <v>7.145207082731983</v>
       </c>
       <c r="G31" t="n">
-        <v>99.53998601093774</v>
+        <v>99.52913856517259</v>
       </c>
     </row>
     <row r="32">
@@ -2890,19 +2890,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.2066485680799</v>
+        <v>101.0786514384009</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008940465868409447</v>
+        <v>0.009047934280859364</v>
       </c>
       <c r="D32" t="n">
-        <v>2689.884320979012</v>
+        <v>2689.627563919801</v>
       </c>
       <c r="E32" t="n">
-        <v>4.437470876986126</v>
+        <v>4.494319660557501</v>
       </c>
       <c r="F32" t="n">
-        <v>8.50697057228134</v>
+        <v>8.500777151716706</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -2915,19 +2915,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96.99507844213997</v>
+        <v>96.5463516272921</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002100654039390116</v>
+        <v>0.002103908524947936</v>
       </c>
       <c r="D33" t="n">
-        <v>2682.73677862317</v>
+        <v>2681.887380205346</v>
       </c>
       <c r="E33" t="n">
-        <v>4.437470876986126</v>
+        <v>4.494319660557501</v>
       </c>
       <c r="F33" t="n">
-        <v>9.155738581914784</v>
+        <v>9.152728182403578</v>
       </c>
       <c r="G33" t="n">
         <v>100</v>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.27442324927523</v>
+        <v>18.29908404353898</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002100654039390116</v>
+        <v>0.002103908524947936</v>
       </c>
       <c r="D34" t="n">
-        <v>76.69237910670678</v>
+        <v>76.79560404457682</v>
       </c>
       <c r="E34" t="n">
-        <v>4.437470876986126</v>
+        <v>4.494319660557501</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2961,16 +2961,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20.2921066111013</v>
+        <v>20.31678972402239</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>85.78876873611726</v>
+        <v>85.89199338239052</v>
       </c>
       <c r="E35" t="n">
-        <v>4.437470876986126</v>
+        <v>4.494319660557501</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -3066,16 +3066,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.5439956431569</v>
+        <v>493.5391342202873</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3454.003988419755</v>
+        <v>3453.993272054266</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082104926185082</v>
+        <v>5.082099682703182</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
         <v>326.8030445761531</v>
       </c>
       <c r="E41" t="n">
-        <v>6.006219685171737</v>
+        <v>6.006229952822294</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>508.5439956431569</v>
+        <v>508.5391342202873</v>
       </c>
       <c r="C42" t="n">
-        <v>6.862624904714064</v>
+        <v>6.862692360117986</v>
       </c>
       <c r="D42" t="n">
-        <v>3433.650648738969</v>
+        <v>3433.639136277482</v>
       </c>
       <c r="E42" t="n">
-        <v>6.006219685171737</v>
+        <v>6.006229952822294</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -3219,7 +3219,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>5.986980173052393</v>
+        <v>5.986973995961871</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>5.986980173052393</v>
+        <v>5.986973995961871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>5.986980173052393</v>
+        <v>5.986973995961871</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>5.986980173052393</v>
+        <v>5.986973995961871</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>1348.041621038311</v>
       </c>
       <c r="E6" t="n">
-        <v>2.381356701202984</v>
+        <v>2.381354244228769</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3406,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944173</v>
+        <v>0.05094889585944188</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0976743545348964</v>
+        <v>0.09767435453489638</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173055</v>
       </c>
       <c r="M6" t="n">
         <v>0.002008604154522552</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.253307715312018</v>
+        <v>2.256156500343599</v>
       </c>
       <c r="C2" t="n">
-        <v>2.514086217746771</v>
+        <v>2.516310987720546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8962730472034194</v>
+        <v>0.8966127443521543</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1822357428412213</v>
+        <v>0.1821059975546793</v>
       </c>
     </row>
     <row r="3">
@@ -3679,11 +3679,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>137.3051482644331</v>
+        <v>137.3091458825464</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>32.32522734998361</v>
+        <v>32.32558314204608</v>
       </c>
     </row>
     <row r="6">
@@ -3694,7 +3694,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.24121827622431</v>
+        <v>6.241226758288608</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.86829760483255</v>
+        <v>38.8849551727909</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3719,12 +3719,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29.07087014194626</v>
+        <v>29.06682968679884</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8489825737090537</v>
+        <v>0.8489742008106335</v>
       </c>
     </row>
     <row r="9">
@@ -3734,12 +3734,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.782343099615024</v>
+        <v>7.794798611724971</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.836929785043125</v>
+        <v>0.8369364051672227</v>
       </c>
     </row>
     <row r="10">
@@ -3749,12 +3749,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.983367352225191</v>
+        <v>1.988540014422892</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.7954111532648075</v>
+        <v>0.7954871861694318</v>
       </c>
     </row>
     <row r="11">
@@ -3764,12 +3764,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03171701104607068</v>
+        <v>0.03478685984419922</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.03351637972461725</v>
+        <v>0.03606788586591977</v>
       </c>
     </row>
     <row r="12">
@@ -3779,13 +3779,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04036496406622763</v>
+        <v>0.04088208144102176</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04521877946344033</v>
+        <v>0.04579688580685176</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8926593009628436</v>
+        <v>0.8926825639071143</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37656.78222972719</v>
+        <v>37659.36961668538</v>
       </c>
       <c r="C2" t="n">
-        <v>38037.15376740121</v>
+        <v>38039.7672895812</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3872,10 +3872,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84711.30530004382</v>
+        <v>84710.60480874382</v>
       </c>
       <c r="C3" t="n">
-        <v>85566.97505054931</v>
+        <v>85566.26748357962</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3888,10 +3888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31713.35141021431</v>
+        <v>31823.19141533482</v>
       </c>
       <c r="C4" t="n">
-        <v>32033.68829314576</v>
+        <v>32144.6377932675</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3904,10 +3904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>456.8505900606593</v>
+        <v>457.0005010777749</v>
       </c>
       <c r="C5" t="n">
-        <v>461.4652424855144</v>
+        <v>461.6166677553281</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3920,10 +3920,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29289.256793479</v>
+        <v>29394.70023054508</v>
       </c>
       <c r="C6" t="n">
-        <v>29585.10787220101</v>
+        <v>29691.61639448998</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29369.03431160975</v>
+        <v>29291.34114424107</v>
       </c>
       <c r="C7" t="n">
-        <v>29665.69122384823</v>
+        <v>29587.21327701119</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.57264588286582</v>
+        <v>24.60063038813192</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.8014838449904</v>
+        <v>110.7748888593585</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.553002725513931</v>
+        <v>9.551596205135573</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17223.8185662089</v>
+        <v>17223.74633382817</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1436.590672742452</v>
+        <v>1436.625658657696</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11404.40176593439</v>
+        <v>11404.44446103532</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3937.887722072474</v>
+        <v>3937.88365914121</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2844.945646128201</v>
+        <v>2844.942710844256</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10560.54045469</v>
+        <v>10560.52955881053</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18779.96449563312</v>
+        <v>18779.98158745369</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -4205,7 +4205,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8288370654619891</v>
+        <v>0.8288611969247035</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459.5712088798886</v>
+        <v>459.8646942941763</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>864.4363251674692</v>
+        <v>864.7681462956994</v>
       </c>
       <c r="E6" t="n">
         <v>515.469582375</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302.5027717873858</v>
+        <v>306.3222197702457</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>690.1147964062425</v>
+        <v>694.27808281497</v>
       </c>
       <c r="E7" t="n">
         <v>515.469582375</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.5299564841144</v>
+        <v>238.3347027852718</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>617.681432985148</v>
+        <v>620.6941230836412</v>
       </c>
       <c r="E8" t="n">
         <v>515.469582375</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>234.6077165129514</v>
+        <v>237.41056543675</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>616.6911959818439</v>
+        <v>619.7012787704115</v>
       </c>
       <c r="E9" t="n">
         <v>515.469582375</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.8466561353756</v>
+        <v>177.5831682487918</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.962608998978</v>
+        <v>555.8066428687358</v>
       </c>
       <c r="E10" t="n">
         <v>515.469582375</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.1902120501153</v>
+        <v>111.6372851691324</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>486.7162850727685</v>
+        <v>486.1348910015481</v>
       </c>
       <c r="E11" t="n">
         <v>515.469582375</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.3171684905177</v>
+        <v>501.5309063482126</v>
       </c>
       <c r="C3" t="n">
-        <v>7.578086203906496</v>
+        <v>8.071065566505704</v>
       </c>
       <c r="D3" t="n">
-        <v>3410.222860038069</v>
+        <v>3402.434551088149</v>
       </c>
       <c r="E3" t="n">
-        <v>61.45849639729509</v>
+        <v>61.26488335812787</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.4367874381012</v>
+        <v>298.457201555814</v>
       </c>
       <c r="C4" t="n">
-        <v>7.934786234358952</v>
+        <v>8.402796430523296</v>
       </c>
       <c r="D4" t="n">
-        <v>2759.648841589242</v>
+        <v>2752.551732490947</v>
       </c>
       <c r="E4" t="n">
-        <v>61.45849639729509</v>
+        <v>61.26488335812787</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.0868786253926</v>
+        <v>297.7466653293883</v>
       </c>
       <c r="C5" t="n">
-        <v>7.934786234358952</v>
+        <v>8.402796430523296</v>
       </c>
       <c r="D5" t="n">
-        <v>1312.218821928101</v>
+        <v>1332.345914874003</v>
       </c>
       <c r="E5" t="n">
-        <v>61.45849639729509</v>
+        <v>61.26488335812787</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.1796397963594</v>
+        <v>169.1117712038813</v>
       </c>
       <c r="C6" t="n">
-        <v>7.934786234358952</v>
+        <v>8.402796430523296</v>
       </c>
       <c r="D6" t="n">
-        <v>710.7986490870045</v>
+        <v>719.4363556760675</v>
       </c>
       <c r="E6" t="n">
-        <v>61.45849639729509</v>
+        <v>61.26488335812787</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.6751233082226</v>
+        <v>166.235697351769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6953075499639571</v>
+        <v>0.7226675909194215</v>
       </c>
       <c r="D7" t="n">
-        <v>695.8198582113929</v>
+        <v>702.627683605422</v>
       </c>
       <c r="E7" t="n">
-        <v>61.45849639729509</v>
+        <v>61.26488335812787</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>176.6274681740371</v>
+        <v>177.9711990974264</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6881386344442173</v>
+        <v>0.7155849512060228</v>
       </c>
       <c r="D8" t="n">
-        <v>2792.22467917946</v>
+        <v>2793.492646147818</v>
       </c>
       <c r="E8" t="n">
-        <v>16.97965099068807</v>
+        <v>17.23357034444853</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.6751231720521</v>
+        <v>166.2356972122718</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6953075499639571</v>
+        <v>0.7226675909194215</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.468602742254</v>
+        <v>2764.093771661646</v>
       </c>
       <c r="E9" t="n">
-        <v>16.97965099068807</v>
+        <v>17.23357034444853</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.6751233082226</v>
+        <v>166.235697351769</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6953075499639571</v>
+        <v>0.7226675909194215</v>
       </c>
       <c r="D10" t="n">
-        <v>735.0638501426515</v>
+        <v>739.8829820568217</v>
       </c>
       <c r="E10" t="n">
-        <v>78.43814738798316</v>
+        <v>78.4984537025764</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.6751233082226</v>
+        <v>166.235697351769</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6953075499639571</v>
+        <v>0.7226675909194215</v>
       </c>
       <c r="D11" t="n">
-        <v>735.0638501426515</v>
+        <v>739.8829820568217</v>
       </c>
       <c r="E11" t="n">
-        <v>78.44312609373526</v>
+        <v>78.4984537025764</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.95025543948884</v>
+        <v>68.41007513012551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6953075499639571</v>
+        <v>0.7226675909194215</v>
       </c>
       <c r="D12" t="n">
-        <v>297.5898471336292</v>
+        <v>286.9500837268278</v>
       </c>
       <c r="E12" t="n">
-        <v>78.43814738798316</v>
+        <v>78.4984537025764</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.95174133342738</v>
+        <v>68.41063432529177</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>297.5960720420522</v>
+        <v>286.9524255541356</v>
       </c>
       <c r="E13" t="n">
-        <v>73.72583279169972</v>
+        <v>78.49828788912187</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70.95174133342738</v>
+        <v>68.41063432529177</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>297.5960720420522</v>
+        <v>286.9524255541356</v>
       </c>
       <c r="E14" t="n">
-        <v>73.72583279169972</v>
+        <v>78.49828788912187</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>113.3556915189277</v>
+        <v>112.3583067973936</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1603075899746903</v>
+        <v>0.1551131469039014</v>
       </c>
       <c r="D15" t="n">
-        <v>475.6243762630035</v>
+        <v>471.3993040306245</v>
       </c>
       <c r="E15" t="n">
-        <v>65.49352324037153</v>
+        <v>65.8972469877357</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.20951273382553</v>
+        <v>77.07475119178031</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1603078090704149</v>
+        <v>0.1551144089506528</v>
       </c>
       <c r="D16" t="n">
-        <v>323.3944535948846</v>
+        <v>322.8250235219222</v>
       </c>
       <c r="E16" t="n">
-        <v>65.49350764327139</v>
+        <v>65.89730241023231</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.72154851604733</v>
+        <v>94.23900605503721</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>396.5991236366902</v>
+        <v>394.5787183524408</v>
       </c>
       <c r="E19" t="n">
         <v>87.89155839488525</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>124.5680261065726</v>
+        <v>124.8389525815306</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2291728111100982</v>
+        <v>0.2310877983952997</v>
       </c>
       <c r="D20" t="n">
-        <v>2704.822228791577</v>
+        <v>2693.470039870271</v>
       </c>
       <c r="E20" t="n">
-        <v>13.54188809277268</v>
+        <v>14.8694465859027</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.9139045957625</v>
+        <v>123.1813062554858</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2177141705545933</v>
+        <v>0.2195334084755348</v>
       </c>
       <c r="D21" t="n">
-        <v>516.1973239165399</v>
+        <v>517.3346928225851</v>
       </c>
       <c r="E21" t="n">
-        <v>13.54188809277268</v>
+        <v>14.8694465859027</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.9560184668715</v>
+        <v>109.0343076682083</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>460.385849320791</v>
+        <v>456.5266462067882</v>
       </c>
       <c r="E22" t="n">
         <v>697.7131134404383</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>71.27873497319707</v>
+        <v>71.21794865848851</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.9206093787048</v>
+        <v>113.9139905301279</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1687448315523056</v>
+        <v>0.1632769967409489</v>
       </c>
       <c r="D25" t="n">
-        <v>2661.899527594765</v>
+        <v>2644.843397570753</v>
       </c>
       <c r="E25" t="n">
-        <v>51.95173167101067</v>
+        <v>51.02811267000337</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499.5029342356981</v>
+        <v>498.9191377341369</v>
       </c>
       <c r="C26" t="n">
-        <v>6.997033368016992</v>
+        <v>7.531887567956407</v>
       </c>
       <c r="D26" t="n">
-        <v>3410.222860038069</v>
+        <v>3402.434551088149</v>
       </c>
       <c r="E26" t="n">
-        <v>56.74609395899898</v>
+        <v>61.26488335812787</v>
       </c>
       <c r="F26" t="n">
-        <v>6.798621435666964</v>
+        <v>6.756503440206644</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.1826085835636</v>
+        <v>190.8324561930523</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5088506261112439</v>
+        <v>0.5346199527808412</v>
       </c>
       <c r="D27" t="n">
-        <v>2842.847499720134</v>
+        <v>2834.129928668667</v>
       </c>
       <c r="E27" t="n">
-        <v>56.74609395899898</v>
+        <v>61.26488335812787</v>
       </c>
       <c r="F27" t="n">
-        <v>7.025521733198129</v>
+        <v>6.984686708563094</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.7022887007778</v>
+        <v>175.1043734888577</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5909002308138827</v>
+        <v>0.6191419006158373</v>
       </c>
       <c r="D28" t="n">
-        <v>2792.22467917946</v>
+        <v>2793.492646147818</v>
       </c>
       <c r="E28" t="n">
-        <v>16.97965099068807</v>
+        <v>17.23357034444853</v>
       </c>
       <c r="F28" t="n">
-        <v>6.84811834431614</v>
+        <v>6.830318275931738</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>188.808874398383</v>
+        <v>186.7639082853457</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5088506261112439</v>
+        <v>0.5346199527808412</v>
       </c>
       <c r="D29" t="n">
-        <v>2831.188643976709</v>
+        <v>2825.208409404303</v>
       </c>
       <c r="E29" t="n">
-        <v>73.72574494968705</v>
+        <v>78.4984537025764</v>
       </c>
       <c r="F29" t="n">
-        <v>7.000429353687806</v>
+        <v>6.965373679872338</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.5674329408977</v>
+        <v>124.8388891134414</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2291634640707683</v>
+        <v>0.2310890744990298</v>
       </c>
       <c r="D30" t="n">
-        <v>2704.819685221763</v>
+        <v>2693.46977180347</v>
       </c>
       <c r="E30" t="n">
-        <v>73.72574494968705</v>
+        <v>78.4984537025764</v>
       </c>
       <c r="F30" t="n">
-        <v>7.062208575011675</v>
+        <v>7.029944910156718</v>
       </c>
       <c r="G30" t="n">
-        <v>99.64990547883257</v>
+        <v>99.11357157458454</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.9202920862531</v>
+        <v>113.9139540014839</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1687430847124076</v>
+        <v>0.1632768009920097</v>
       </c>
       <c r="D31" t="n">
-        <v>2661.898218110712</v>
+        <v>2644.84324781564</v>
       </c>
       <c r="E31" t="n">
-        <v>60.18395338032619</v>
+        <v>63.62931938484407</v>
       </c>
       <c r="F31" t="n">
-        <v>7.089420952091168</v>
+        <v>7.05999052888173</v>
       </c>
       <c r="G31" t="n">
-        <v>98.35032053094145</v>
+        <v>97.65138111200037</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.04886348540828</v>
+        <v>78.8737570472212</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01597106034096957</v>
+        <v>0.02402593066104284</v>
       </c>
       <c r="D32" t="n">
-        <v>2661.898218110712</v>
+        <v>2644.84324781564</v>
       </c>
       <c r="E32" t="n">
-        <v>8.23232514842833</v>
+        <v>12.60098547888956</v>
       </c>
       <c r="F32" t="n">
-        <v>8.163504975090222</v>
+        <v>7.927836815162156</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58.17575616730159</v>
+        <v>21.51647317732346</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002316649960524048</v>
+        <v>0.002568319024572825</v>
       </c>
       <c r="D33" t="n">
-        <v>2609.456918967275</v>
+        <v>2536.205371443386</v>
       </c>
       <c r="E33" t="n">
-        <v>8.23232514842833</v>
+        <v>12.60098547888956</v>
       </c>
       <c r="F33" t="n">
-        <v>8.901451465615887</v>
+        <v>8.618798915186131</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>99.83743711787763</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.84290527376834</v>
+        <v>21.51647317732346</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002316649960524048</v>
+        <v>0.002568319024572825</v>
       </c>
       <c r="D34" t="n">
-        <v>83.25677392470043</v>
+        <v>90.25905978356836</v>
       </c>
       <c r="E34" t="n">
-        <v>8.23232514842833</v>
+        <v>12.60098547888956</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.8619612546849</v>
+        <v>23.53689061329499</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>92.35314626463332</v>
+        <v>99.35539669602177</v>
       </c>
       <c r="E35" t="n">
-        <v>8.23232514842833</v>
+        <v>12.60098547888956</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -5477,16 +5477,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.5439956431569</v>
+        <v>493.5391342202873</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3454.003988419755</v>
+        <v>3453.993272054266</v>
       </c>
       <c r="E40" t="n">
-        <v>5.082104926185082</v>
+        <v>5.082099682703182</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -5519,16 +5519,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>508.5439956431569</v>
+        <v>508.5391342202873</v>
       </c>
       <c r="C42" t="n">
-        <v>6.862624904714064</v>
+        <v>6.862692360117986</v>
       </c>
       <c r="D42" t="n">
-        <v>3433.650648738969</v>
+        <v>3433.639136277482</v>
       </c>
       <c r="E42" t="n">
-        <v>6.006219685171737</v>
+        <v>6.006229952822294</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
